--- a/backend/app/records.xlsx
+++ b/backend/app/records.xlsx
@@ -1,115 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nam/Documents/MA1/SEM 1/MMI/Recommender System/HCIPaper/backend/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D92DB2F-DFC0-D34C-8AE7-4A9CEDCA8033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>description1</t>
-  </si>
-  <si>
-    <t>summary1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>image2</t>
-  </si>
-  <si>
-    <t>description2</t>
-  </si>
-  <si>
-    <t>summary2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>description3</t>
-  </si>
-  <si>
-    <t>summary3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>image4</t>
-  </si>
-  <si>
-    <t>description4</t>
-  </si>
-  <si>
-    <t>summary4</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>formType</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>finalTime</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,90 +419,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>image1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>summary1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>image2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>summary2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>image3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description3</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>summary3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>name4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image4</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>description4</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>summary4</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>formType</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>finalTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>140313803039296</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Boelie</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/12/c66d6b76-c9b8-4598-b4e5-79e80c5440d5-1200x1600.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Deze knappe man is een kruising Akita met Amerikaanse Stafford. Hij is geboren in januari 2020. Zijn vorige eigenaar wilde hem na 6 dagen niet meer bij zich houden.
+Boelie is een actieve hond die graag dingen onderneemt. Toen hij hier binnenkwam, wist Boelie absoluut niet wat hij moest doen, hoe zich te gedragen en wat te verwachten. Er is in het asiel hard gewerkt aan zijn etiquette en tijdens het project Belgian Cell Dogs heeft Boelie laten zien een voorbeeldstudent te zijn. Zodra hij een band heeft met mensen (lees: wanneer er lekker eten te verdienen valt) heeft Boelie zin om te werken! Boelie heeft ook al geleerd om na te denken op momenten dat hij gefrustreerd wordt, daar waar hij voorheen kon happen. Hij heeft hier enorme vooruitgang in geboekt. We zijn dan ook heel enthousiast over zijn leervermogen!
+Favoriete bezigheden van deze vent zijn spelen en voerspelletjes. Momenten van aaien vindt hij ook fijn, maar Boelie is liever bezig met snuffelen, apporteren of snoepen. Oh, en als hobby is er ook nog zwemmen, of pootje baden. Zijn lijstje van favoriete bezigheden wordt afgesloten met een rustige wandeling.
+Boelie is een hele leergierige en voedselgerichte hond. Hij kent inmiddels de commando’s ‘zit’, ‘poot’ en ‘kom hier’.
+We zoeken voor Boelie een huis met een tuin. Zijn toekomstige baasje is het best in het begin meer thuis om hem te begeleiden. Oudere kinderen kunnen een optie voor hem zijn. Hij wordt helaas niet bij andere dieren geplaatst.
+Heeft u interesse in Boelie? Neem dan contact met ons op.
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Snuffelen, wandelen, apporteren, snoepen, zwemmen, trainen ... Ik ben een actieve hond die graag onderneemt! </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/08/zumaa.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Zuma heeft nogal een weg afgelegd vóór hij in ons asiel terecht is gekomen. Van de fokker is hij naar de eerste eigenaar gegaan, waar hij moeite had met het kind van de eigenaar. Hierop is hij doorgegeven aan mensen die zich niet bewust zijn van wat houden van honden inhoudt, zowel letterlijk als figuurlijk. Zuma is vervolgens op straat gezet en gelukkig veilig gevangen door onze hondenvanger.
+U kunt dus wel stellen dat Zuma een slechte start heeft gehad.
+In nieuwe situaties is hij erg onderzoekend en wil daarbij alles besnuffelen. Rondom nieuwe personen is hij onzeker en hij vertrouwt ook niet iedereen gelijk. Er is een vermoeden dat Zuma fysiek niet altijd even goed behandeld is geweest. We vinden het daarom belangrijk om aan zijn nieuwe eigenaren uitleg te geven over signalen die hij geeft wanneer hij zich minder comfortabel voelt. Het is nog geen hond die geniet van lange knuffelsessies.
+Waar je Zuma wel blij mee kunt maken is speuren. Hij is voergevoelig en hij kent ook al verschillende commando’s, zoals zit, af, poot en blijf. Speeltjes zijn fantastisch en er is veel met Zuma gewerkt met trekspellen. We zien dat Zuma hierin etiquette nodig gaat hebben, zodat spel gecontroleerd blijft.
+Wandelen is wel gekend door Zuma, maar het is nog geen hele ontspannen bezigheid. Hier kan de nieuwe eigenaar zeker aan werken!
+Wij weten zeker dat Zuma een mooie band kan gaan opbouwen met zijn nieuwe eigenaar wanneer hij deze gaat vertrouwen en er samen leuke en fijne dingen worden gedaan met hem.  
+Voor Zuma zoeken we een huis met een tuin, zonder kinderen. Hij kan eventueel bij een leuk teefje worden geplaatst.
+Bij interesse stuurt u het best een mailtje naar info@dierenasielgenk.be
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ik ben op zoek naar een baasje om mee te spelen en te speuren en om samen een mooie band op te bouwen!</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Kita</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/09/IMG_8700-1200x1600.jpg</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Kita werd in beslag genomen. Ze leefde in een heel vuil appartement en kreeg niet de zorg die ze nodig had.
+In het asiel is het duidelijk dat er beginnend pakwerk is gedaan met Kita. Ze laat zien dat ze graag werkt; mensen die graag hondensport willen beoefenen met haar, zijn ideaal. Ze is afkomstig uit een werklijn, dus het is geen doorsnee gezinshond: actieve mensen zijn absoluut een must.
+Deze dame is actief, gek op eten en wil de wereld graag ontdekken. Ze heeft niet veel mogen zien in haar leven, maar ze is hartstikke onderzoekend en nieuwsgierig. Waar ze in het begin bang was voor het stuiteren van de de tennisbal, vindt ze deze steeds leuker. Inmiddels vindt ze deze zó leuk, dat ze de tennisbal kan beschermen.
+Ditzelfde gedrag laat ze ook zien bij kauwbotjes. Hiermee dient rekening te worden gehouden door haar nieuwe eigenaren.
+Kita kent zit en poot. We zijn er zeker van dat ze nog veel meer kan leren bij mensen die graag trainen. Voor mensen die ervaring hebben in de hondensport is Kita ideaal: ze werkt graag en dit is een ideale manier om ervoor te zorgen dat ze haar energie kwijt kan raken.
+Een huis met een tuin is noodzakelijk. Een adoptie bij kinderen en andere dieren is helaas niet mogelijk.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ik ben actief, gek op eten en wil de wereld graag ontdekken met een leuk baasje. Mensen die graag hondensport willen beoefenen zijn ideaal! </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
+Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
+Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
+Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>18:31:30</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>18:32:42</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/app/records.xlsx
+++ b/backend/app/records.xlsx
@@ -1,115 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nam/Documents/MA1/SEM 1/MMI/Recommender System/HCIPaper/backend/app/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBEBC30-8A36-AF42-BB9B-33248A2948A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>description1</t>
-  </si>
-  <si>
-    <t>summary1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>image2</t>
-  </si>
-  <si>
-    <t>description2</t>
-  </si>
-  <si>
-    <t>summary2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>description3</t>
-  </si>
-  <si>
-    <t>summary3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>image4</t>
-  </si>
-  <si>
-    <t>description4</t>
-  </si>
-  <si>
-    <t>summary4</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>formType</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>finalTime</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,90 +419,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>image1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>summary1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>image2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>summary2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>image3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description3</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>summary3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>name4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image4</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>description4</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>summary4</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>formType</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>finalTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4751920640</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/08/zumaa.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Zuma heeft nogal een weg afgelegd vóór hij in ons asiel terecht is gekomen. Van de fokker is hij naar de eerste eigenaar gegaan, waar hij moeite had met het kind van de eigenaar. Hierop is hij doorgegeven aan mensen die zich niet bewust zijn van wat houden van honden inhoudt, zowel letterlijk als figuurlijk. Zuma is vervolgens op straat gezet en gelukkig veilig gevangen door onze hondenvanger.
+U kunt dus wel stellen dat Zuma een slechte start heeft gehad.
+In nieuwe situaties is hij erg onderzoekend en wil daarbij alles besnuffelen. Rondom nieuwe personen is hij onzeker en hij vertrouwt ook niet iedereen gelijk. Er is een vermoeden dat Zuma fysiek niet altijd even goed behandeld is geweest. We vinden het daarom belangrijk om aan zijn nieuwe eigenaren uitleg te geven over signalen die hij geeft wanneer hij zich minder comfortabel voelt. Het is nog geen hond die geniet van lange knuffelsessies.
+Waar je Zuma wel blij mee kunt maken is speuren. Hij is voergevoelig en hij kent ook al verschillende commando’s, zoals zit, af, poot en blijf. Speeltjes zijn fantastisch en er is veel met Zuma gewerkt met trekspellen. We zien dat Zuma hierin etiquette nodig gaat hebben, zodat spel gecontroleerd blijft.
+Wandelen is wel gekend door Zuma, maar het is nog geen hele ontspannen bezigheid. Hier kan de nieuwe eigenaar zeker aan werken!
+Wij weten zeker dat Zuma een mooie band kan gaan opbouwen met zijn nieuwe eigenaar wanneer hij deze gaat vertrouwen en er samen leuke en fijne dingen worden gedaan met hem.  
+Voor Zuma zoeken we een huis met een tuin, zonder kinderen. Hij kan eventueel bij een leuk teefje worden geplaatst.
+Bij interesse stuurt u het best een mailtje naar info@dierenasielgenk.be
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ik ben op zoek naar een baasje om mee te spelen en te speuren en om samen een mooie band op te bouwen!</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/zuma/</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Rita</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/07/rita-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Rita is een Duitse Herder van 2014. Ze werd gevonden, maar bleek afkomstig van mensen die bekend zijn omwille van het niet goed verzorgen van dieren.
+Helaas hebben we geen informatie over het verleden van Rita.
+Bij binnenkomst had Rita een oorontsteking aan beide oren. Ze heeft hiervoor een behandeling gekregen en heeft daar nu geen last meer van.
+Rita heeft even tijd nodig om mensen te leren kennen. Ze is geen allemansvriend, maar ze laat zich gelukkig goed omkopen met lekkere snoepjes. Dit is haar grote pluspunt, ook bij het leren van nieuwe commando’s en tijdens wandelingen. Hierdoor is ze goed af te leiden bij het zien van prikkels.
+Ze heeft duidelijk in huis geleefd en voelt zich comfortabel binnenshuis.
+Rita speelt ook graag. Tennisballen vindt ze heel fijn, net als pluche knuffels. We zien ook dat ze meer en meer vraagt om geknuffeld te worden door mensen die ze kent.
+Deze lieve, zachte dame is op zoek naar een rustige thuis met een tuin. Ze houdt niet zo van andere dieren en kinderen.
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Ik ben geen allemansvriend, maar ik ben gek op snoepjes, spelen en knuffelen met bekende mensen!</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/rita/</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2020/05/IMG_7834-3-1200x801.jpg</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Er zijn zo van die honden die bijna horen tot het ‘vaste meubilair’ van het asiel. Zonde, want we begrijpen vaak zelf niet goed hoe dat komt.
+Een van die honden is Mechelaar Molly.
+Deze pittige dame wordt geschat op zo’n zes jaar oud. Haar leven liep tot hiertoe allesbehalve over rozen. Ze werd gehouden als kweekteefje, maar na bewezen diensten ‘bedankt’ door haar te dumpen langs de kant van de weg.
+Toch laat Molly haar mooie kopje daar niet door hangen, want ze ontpopte zich in het asiel tot een energieke, leergierige hond. Haar grote passie? Heerlijk achter de bal stuiteren. Ze houdt je liefst uren bezig met balletje gooien. Maar een andere activiteit waar deze atlete gek op is, is zwemmen. Zoek je zwemmaatje? Dan is Molly zeker en vast van de partij!
+Een kus van de juf en een bank vooruit
+Tijdens haar lange verblijf in het asiel, werd er al grondig getraind met Molly. Want in het begin reageerde ze tijdens een wandeling op alles wat bewoog, maar inmiddels gedraagt ze zich al erg flink! We merkten ook heel duidelijk dat ze enorm leergierig is. Er is dus nog veel ruimte om te groeien.
+Molly kan niet geplaatst worden bij andere dieren of kleine kinderen en een hoge omheining is een must voor deze schone springster. 
+Zoek je dus een trouwe metgezel om stap voor stap te laten kennismaken met het huiselijke leven? Dan is Molly misschien wel je ideale match!</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Zoek je een trouwe, leergierige metgezel om verder te laten kennismaken met het huiselijke leven? Dan is Molly misschien wel je ideale match!</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/molly/</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Thor</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/08/IMG_8797.1jpg-1200x800.jpg</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Thor werd uit een donkere stal gehaald, helemaal achterin de tuin. Het was al even geleden dat Thor uit de stal was geweest: er werd niet gewandeld met Thor en ook in huis komen was geen optie. Sterker nog: op het moment dat Thor in beslag werd genomen, gaf de eigenaar al aan ‘Thor niet meer te willen’. Thor was in de ogen van zijn vorige eigenaar niet meer dan een object, waar hij in het asiel eindelijk weer ‘hond’ mocht zijn. Hij mocht zijn pootjes strekken, rondlopen in de speelweide en hij kreeg weer eens fysiek contact.
+Deze man is geboren in mei 2015 en zou graag de rest van zijn leven willen doorbrengen op een plaats waar hij wel graag gezien wordt, waar hij voldoende eten krijgt en waar hij goed verzorgd wordt.
+In het asiel heeft Thor onmiddellijk laten zien wat hij goed kan: hoog springen. Hij vond het zo fijn om zijn poten eens te kunnen strekken, dat hij dit iets té enthousiast heeft gedaan. Belangrijk punt voor zijn nieuwe eigenaren is dus een voldoende hoge omheining.
+Door al die jaren in duisternis te leven, waren heel veel dingen eng voor Thor. Hij heeft in het asiel veel geleerd: knuffels krijgen is heel leuk, wandelen is heel fijn en mensen dienen niet om je ergens in op te sluiten, maar om samen iets met je te doen!
+Waar Thor in het begin heel veel moeite had met alle prikkels in het asiel, zien we nu vreugde wanneer hij bekenden ziet. Hij begint te piepen en schudt met zijn hele achterwerk van enthousiasme!
+Een zindelijkheidstraining is voor Thor gewenst, evenals een huis met een tuin.
+Deze vriendelijke man moet nog veel leren, maar hij wil ontzettend graag! Bij rustige, geduldige mensen die in het begin meer thuis zijn, zal hij veel stappen kunnen zetten. Liefst ook letterlijk, want het leven opnieuw doorbrengen in een stal, is geen optie meer. Thor zou herplaatst kunnen worden bij een een stabiele en steriele teef.</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ik zou heel graag de rest van mijn leven doorbrengen op een plek waar ik graag gezien wordt, voldoende eten krijg en goed verzorgd wordt. </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/thor/</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>11:35:45</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>11:35:51</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4750523968</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/08/zumaa.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Zuma heeft nogal een weg afgelegd vóór hij in ons asiel terecht is gekomen. Van de fokker is hij naar de eerste eigenaar gegaan, waar hij moeite had met het kind van de eigenaar. Hierop is hij doorgegeven aan mensen die zich niet bewust zijn van wat houden van honden inhoudt, zowel letterlijk als figuurlijk. Zuma is vervolgens op straat gezet en gelukkig veilig gevangen door onze hondenvanger.
+U kunt dus wel stellen dat Zuma een slechte start heeft gehad.
+In nieuwe situaties is hij erg onderzoekend en wil daarbij alles besnuffelen. Rondom nieuwe personen is hij onzeker en hij vertrouwt ook niet iedereen gelijk. Er is een vermoeden dat Zuma fysiek niet altijd even goed behandeld is geweest. We vinden het daarom belangrijk om aan zijn nieuwe eigenaren uitleg te geven over signalen die hij geeft wanneer hij zich minder comfortabel voelt. Het is nog geen hond die geniet van lange knuffelsessies.
+Waar je Zuma wel blij mee kunt maken is speuren. Hij is voergevoelig en hij kent ook al verschillende commando’s, zoals zit, af, poot en blijf. Speeltjes zijn fantastisch en er is veel met Zuma gewerkt met trekspellen. We zien dat Zuma hierin etiquette nodig gaat hebben, zodat spel gecontroleerd blijft.
+Wandelen is wel gekend door Zuma, maar het is nog geen hele ontspannen bezigheid. Hier kan de nieuwe eigenaar zeker aan werken!
+Wij weten zeker dat Zuma een mooie band kan gaan opbouwen met zijn nieuwe eigenaar wanneer hij deze gaat vertrouwen en er samen leuke en fijne dingen worden gedaan met hem.  
+Voor Zuma zoeken we een huis met een tuin, zonder kinderen. Hij kan eventueel bij een leuk teefje worden geplaatst.
+Bij interesse stuurt u het best een mailtje naar info@dierenasielgenk.be
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ik ben op zoek naar een baasje om mee te spelen en te speuren en om samen een mooie band op te bouwen!</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/zuma/</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Thor</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/08/IMG_8797.1jpg-1200x800.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Thor werd uit een donkere stal gehaald, helemaal achterin de tuin. Het was al even geleden dat Thor uit de stal was geweest: er werd niet gewandeld met Thor en ook in huis komen was geen optie. Sterker nog: op het moment dat Thor in beslag werd genomen, gaf de eigenaar al aan ‘Thor niet meer te willen’. Thor was in de ogen van zijn vorige eigenaar niet meer dan een object, waar hij in het asiel eindelijk weer ‘hond’ mocht zijn. Hij mocht zijn pootjes strekken, rondlopen in de speelweide en hij kreeg weer eens fysiek contact.
+Deze man is geboren in mei 2015 en zou graag de rest van zijn leven willen doorbrengen op een plaats waar hij wel graag gezien wordt, waar hij voldoende eten krijgt en waar hij goed verzorgd wordt.
+In het asiel heeft Thor onmiddellijk laten zien wat hij goed kan: hoog springen. Hij vond het zo fijn om zijn poten eens te kunnen strekken, dat hij dit iets té enthousiast heeft gedaan. Belangrijk punt voor zijn nieuwe eigenaren is dus een voldoende hoge omheining.
+Door al die jaren in duisternis te leven, waren heel veel dingen eng voor Thor. Hij heeft in het asiel veel geleerd: knuffels krijgen is heel leuk, wandelen is heel fijn en mensen dienen niet om je ergens in op te sluiten, maar om samen iets met je te doen!
+Waar Thor in het begin heel veel moeite had met alle prikkels in het asiel, zien we nu vreugde wanneer hij bekenden ziet. Hij begint te piepen en schudt met zijn hele achterwerk van enthousiasme!
+Een zindelijkheidstraining is voor Thor gewenst, evenals een huis met een tuin.
+Deze vriendelijke man moet nog veel leren, maar hij wil ontzettend graag! Bij rustige, geduldige mensen die in het begin meer thuis zijn, zal hij veel stappen kunnen zetten. Liefst ook letterlijk, want het leven opnieuw doorbrengen in een stal, is geen optie meer. Thor zou herplaatst kunnen worden bij een een stabiele en steriele teef.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ik zou heel graag de rest van mijn leven doorbrengen op een plek waar ik graag gezien wordt, voldoende eten krijg en goed verzorgd wordt. </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/thor/</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Henkie</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/10/20221007_175756-1200x1814.jpg</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deze leuke en lieve Lhasa Apso is na een hobbelig verleden op zoek naar een liefdevol thuis.
+Henkie is door een inbeslagname bij ons binnengebracht samen met nog enkele andere hondjes. Ze werden gebruikt voor de fok, maar kregen niet de juiste verzorging. Henkies vacht was vervilt, hij had kale plekken op zijn lijf en zijn ogen waren er slecht aan toe.
+Toch kwam gelijk zijn vrolijke en vriendelijke karakter naar boven ondanks dat hij in een nieuwe omgeving terecht kwam en zijn zicht vrijwel volledig ontbrak. Hij onderzocht zijn nieuwe plekje en was blij met de aandacht die hij kreeg. Hij is ook erg speels en vindt alle speeltjes leuk
+Op dit moment zit Henkie in een gastgezin waar hij veel liefde krijgt, hondenvriendjes heeft en ook de nodige medische zorg ontvangt. Ondertussen is hij gecastreerd, is zijn rechteroogje weggenomen en is zijn huid en vacht onder handen genomen. Om zijn andere oog te behouden wordt hij dagelijks intensief gezalfd en in de nabije toekomst heeft hij nog een operatie aan zijn knie nodig. We zoeken baasjes die deze zorg verder willen opvolgen.
+Henkie is 6 jaar, hij is zachtaardig, vriendelijk, onderzoekend en een levensgenieter. Hij wordt uitsluitend geplaatst bij een andere hond, hij kan ook bij kinderen vanaf 10 jaar en hij heeft nood aan een omheinde tuin. 
+In een nieuw thuis heeft Henkie veel baat bij een ander hondje en zullen aspecten zoals zindelijkheid en wandelen aan de riem verder opgebouwd moeten worden. In het gastgezin heeft hij hier al veel stappen in gemaakt.
+</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Ik heb nog wat extra zorg en aandacht nodig, maar ik ben vrolijk, vriendelijk, speels en ik houd van aandacht!</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/henkie-3/</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Lucky</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/IMG20221104163040-1200x900.jpg</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Overgekomen vanuit Roemenië is Lucky nu als inbeslagname in ons asiel beland.
+We hopen dat snel het tij van onge-Lucky gaat keren en dat hij in een nieuw thuis veel geluk mag gaan ervaren.
+We hebben Lucky leren kennen als een onzekere hond die wel erg nieuwsgierig is en op onderzoek uit gaat. In eerste instantie zijn nieuwe dingen eng, maar met de juiste begeleiding is hij wel te sturen en durft hij dingen te onderzoeken.
+Hij is graag bij mensen die hij vertrouwt en is dan een knuffelaar. Daarnaast speelt hij graag met mensen en met speeltjes en eet hij graag vleesjes. Aan wat commando’s zal nog gewerkt moeten worden.
+De deuren in zijn nieuwe thuis kunnen het best Lucky-proof zijn doordat hij deze graag open maakt om van de buitenlucht te genieten. Hij is graag buiten en snuffelt er dan op los.
+We zoeken voor Lucky een huis met een tuin waar gewerkt kan worden aan het vertrouwen tussen hem en zijn nieuwe baasje(s) en welke begrijpen dat Lucky niet in alle situaties de meest open en sociale hond is. Oudere kinderen en eventueel een stabiel teefje behoren tot de mogelijkheden.</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Ik ben onzeker maar wel erg nieuwsgierig en als ik je vertrouw ben ik een echte knuffelaar en speelvogel!</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/lucky-2/</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>11:36:31</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>11:36:45</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>11:38:29</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/app/records.xlsx
+++ b/backend/app/records.xlsx
@@ -1,115 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nam/Documents/MA1/SEM 1/MMI/Recommender System/HCIPaper/backend/app/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBEBC30-8A36-AF42-BB9B-33248A2948A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>description1</t>
-  </si>
-  <si>
-    <t>summary1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>image2</t>
-  </si>
-  <si>
-    <t>description2</t>
-  </si>
-  <si>
-    <t>summary2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>description3</t>
-  </si>
-  <si>
-    <t>summary3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
-    <t>image4</t>
-  </si>
-  <si>
-    <t>description4</t>
-  </si>
-  <si>
-    <t>summary4</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>formType</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>finalTime</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,90 +419,972 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>image1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>summary1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>image2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>summary2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>name3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>image3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description3</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>summary3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>name4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image4</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>description4</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>summary4</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>startTime</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>endTime</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>formType</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>V3</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>finalTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>140310451526976</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Boelie</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/12/c66d6b76-c9b8-4598-b4e5-79e80c5440d5-1200x1600.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Deze knappe man is een kruising Akita met Amerikaanse Stafford. Hij is geboren in januari 2020. Zijn vorige eigenaar wilde hem na 6 dagen niet meer bij zich houden.
+Boelie is een actieve hond die graag dingen onderneemt. Toen hij hier binnenkwam, wist Boelie absoluut niet wat hij moest doen, hoe zich te gedragen en wat te verwachten. Er is in het asiel hard gewerkt aan zijn etiquette en tijdens het project Belgian Cell Dogs heeft Boelie laten zien een voorbeeldstudent te zijn. Zodra hij een band heeft met mensen (lees: wanneer er lekker eten te verdienen valt) heeft Boelie zin om te werken! Boelie heeft ook al geleerd om na te denken op momenten dat hij gefrustreerd wordt, daar waar hij voorheen kon happen. Hij heeft hier enorme vooruitgang in geboekt. We zijn dan ook heel enthousiast over zijn leervermogen!
+Favoriete bezigheden van deze vent zijn spelen en voerspelletjes. Momenten van aaien vindt hij ook fijn, maar Boelie is liever bezig met snuffelen, apporteren of snoepen. Oh, en als hobby is er ook nog zwemmen, of pootje baden. Zijn lijstje van favoriete bezigheden wordt afgesloten met een rustige wandeling.
+Boelie is een hele leergierige en voedselgerichte hond. Hij kent inmiddels de commando’s ‘zit’, ‘poot’ en ‘kom hier’.
+We zoeken voor Boelie een huis met een tuin. Zijn toekomstige baasje is het best in het begin meer thuis om hem te begeleiden. Oudere kinderen kunnen een optie voor hem zijn. Hij wordt helaas niet bij andere dieren geplaatst.
+Heeft u interesse in Boelie? Neem dan contact met ons op.
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Snuffelen, wandelen, apporteren, snoepen, zwemmen, trainen ... Ik ben een actieve hond die graag onderneemt! </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/boelie/</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
+Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
+Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
+Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/junior/</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Biegel</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-10-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Deze heerlijke senior werd naar het asiel gebracht omwille van twee bijtincidenten met de andere hond des huizes. Zijn naam geeft zijn ras meteen weg, en anders doet zijn gedrag dit bevestigen: Biegel is een enorme speurneus. Hij vindt het heerlijk om te speuren naar nieuwe geurtjes of lekkere snoepjes. Deze snoepkont wordt graag mentaal uitgedaagd, bijvoorbeeld door zoek- en speurspellen of het leren van nieuwe commando’s. Zit en liggen zijn reeds bekend, maar Biegel wil heel graag lekkere snoepjes verdienen dus het aanleren van nieuwe commando’s is zeker mogelijk.
+Naast speuren en eten is ook geknuffeld worden een hobby. Samen op de zetel liggen na een uitgebreide wandeling vindt hij zalig.
+Biegel groeide bij zijn eigenaar op in huis en was zindelijk. Hij zoekt nu een warme thuis, zonder andere dieren. Biegel kan eten beschermen, waardoor een adoptie bij kleinere kinderen geen mogelijkheid is.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Ik ben een échte speurneus!</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/biegel/</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ryna</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/08/ASIELGENK_EVIOCLICK-37-1200x800.jpg</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deze dame zat vastgebonden onder een afdak, zonder eten en drinken. Ze was enkele dagen geleden doorgegeven. Ze werd in beslag genomen en is nu op zoek naar een thuis waar ze wél gewenst is.
+Ryna heeft duidelijk alleen buiten geleefd. Waar ze bij de eerste keer met knikkende knietjes een binnenruimte betrad, leert ze heel snel. Ze durft te gaan onderzoeken, houdt ervan om geaaid te worden en vindt het heerlijk om te spelen. Haar nieuwsgierigheid is enorm, waardoor alle spullen in huis grondig gaan worden geïnspecteerd. Ryna inspecteert graag met haar bek, dus haar eigenaren zullen vanaf moment één moeten leren wat wél en niet van haar is. Ryna kent het binnenleven niet en dit moet in stapjes worden opgebouwd. Aangezien ze graag inspecteert en hierbij haar bek gebruikt, zullen de eigenaren, zeker in het begin, veel tijd moeten vrijmaken om haar te begeleiden in wat van Ryna is en wat van mensen is.
+Doordat Ryna niet weet hoe ze zich moet gedragen, springt ze veel op. Haar vorige eigenaren hebben dit gestimuleerd, waardoor dit een werkpunt is voor de nieuwe eigenaren.
+Tolerante, zachtaardige mensen die Ryna stapje voor stapje willen laten groeien zijn ideaal voor haar.
+Deze mooie Mechelse herder is van 1-11-2021. Ze heeft nooit met andere dieren samengeleefd, maar de interactie met een stabiele reu zouden we zeker kunnen bekijken. Grote kinderen zijn een mogelijkheid. Ze vereist een huis met een tuin, zodat ze op haar gemakje kan verkennen.
+</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Ik moet nog wennen aan het leven binnen, maar ik ben erg nieuwsgierig en ik vind het heerlijk om te spelen en geaaid te worden!</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/ryna/</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>21:40:58</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>21:41:19</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>140310453010816</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Boelie</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/12/c66d6b76-c9b8-4598-b4e5-79e80c5440d5-1200x1600.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Deze knappe man is een kruising Akita met Amerikaanse Stafford. Hij is geboren in januari 2020. Zijn vorige eigenaar wilde hem na 6 dagen niet meer bij zich houden.
+Boelie is een actieve hond die graag dingen onderneemt. Toen hij hier binnenkwam, wist Boelie absoluut niet wat hij moest doen, hoe zich te gedragen en wat te verwachten. Er is in het asiel hard gewerkt aan zijn etiquette en tijdens het project Belgian Cell Dogs heeft Boelie laten zien een voorbeeldstudent te zijn. Zodra hij een band heeft met mensen (lees: wanneer er lekker eten te verdienen valt) heeft Boelie zin om te werken! Boelie heeft ook al geleerd om na te denken op momenten dat hij gefrustreerd wordt, daar waar hij voorheen kon happen. Hij heeft hier enorme vooruitgang in geboekt. We zijn dan ook heel enthousiast over zijn leervermogen!
+Favoriete bezigheden van deze vent zijn spelen en voerspelletjes. Momenten van aaien vindt hij ook fijn, maar Boelie is liever bezig met snuffelen, apporteren of snoepen. Oh, en als hobby is er ook nog zwemmen, of pootje baden. Zijn lijstje van favoriete bezigheden wordt afgesloten met een rustige wandeling.
+Boelie is een hele leergierige en voedselgerichte hond. Hij kent inmiddels de commando’s ‘zit’, ‘poot’ en ‘kom hier’.
+We zoeken voor Boelie een huis met een tuin. Zijn toekomstige baasje is het best in het begin meer thuis om hem te begeleiden. Oudere kinderen kunnen een optie voor hem zijn. Hij wordt helaas niet bij andere dieren geplaatst.
+Heeft u interesse in Boelie? Neem dan contact met ons op.
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Snuffelen, wandelen, apporteren, snoepen, zwemmen, trainen ... Ik ben een actieve hond die graag onderneemt! </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/boelie/</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
+Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
+Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
+Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/junior/</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Biegel</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-10-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Deze heerlijke senior werd naar het asiel gebracht omwille van twee bijtincidenten met de andere hond des huizes. Zijn naam geeft zijn ras meteen weg, en anders doet zijn gedrag dit bevestigen: Biegel is een enorme speurneus. Hij vindt het heerlijk om te speuren naar nieuwe geurtjes of lekkere snoepjes. Deze snoepkont wordt graag mentaal uitgedaagd, bijvoorbeeld door zoek- en speurspellen of het leren van nieuwe commando’s. Zit en liggen zijn reeds bekend, maar Biegel wil heel graag lekkere snoepjes verdienen dus het aanleren van nieuwe commando’s is zeker mogelijk.
+Naast speuren en eten is ook geknuffeld worden een hobby. Samen op de zetel liggen na een uitgebreide wandeling vindt hij zalig.
+Biegel groeide bij zijn eigenaar op in huis en was zindelijk. Hij zoekt nu een warme thuis, zonder andere dieren. Biegel kan eten beschermen, waardoor een adoptie bij kleinere kinderen geen mogelijkheid is.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Ik ben een échte speurneus!</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/biegel/</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Ryna</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/08/ASIELGENK_EVIOCLICK-37-1200x800.jpg</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deze dame zat vastgebonden onder een afdak, zonder eten en drinken. Ze was enkele dagen geleden doorgegeven. Ze werd in beslag genomen en is nu op zoek naar een thuis waar ze wél gewenst is.
+Ryna heeft duidelijk alleen buiten geleefd. Waar ze bij de eerste keer met knikkende knietjes een binnenruimte betrad, leert ze heel snel. Ze durft te gaan onderzoeken, houdt ervan om geaaid te worden en vindt het heerlijk om te spelen. Haar nieuwsgierigheid is enorm, waardoor alle spullen in huis grondig gaan worden geïnspecteerd. Ryna inspecteert graag met haar bek, dus haar eigenaren zullen vanaf moment één moeten leren wat wél en niet van haar is. Ryna kent het binnenleven niet en dit moet in stapjes worden opgebouwd. Aangezien ze graag inspecteert en hierbij haar bek gebruikt, zullen de eigenaren, zeker in het begin, veel tijd moeten vrijmaken om haar te begeleiden in wat van Ryna is en wat van mensen is.
+Doordat Ryna niet weet hoe ze zich moet gedragen, springt ze veel op. Haar vorige eigenaren hebben dit gestimuleerd, waardoor dit een werkpunt is voor de nieuwe eigenaren.
+Tolerante, zachtaardige mensen die Ryna stapje voor stapje willen laten groeien zijn ideaal voor haar.
+Deze mooie Mechelse herder is van 1-11-2021. Ze heeft nooit met andere dieren samengeleefd, maar de interactie met een stabiele reu zouden we zeker kunnen bekijken. Grote kinderen zijn een mogelijkheid. Ze vereist een huis met een tuin, zodat ze op haar gemakje kan verkennen.
+</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Ik moet nog wennen aan het leven binnen, maar ik ben erg nieuwsgierig en ik vind het heerlijk om te spelen en geaaid te worden!</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/ryna/</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>21:40:58</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>21:41:41</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>140612152824832</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boelie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/12/c66d6b76-c9b8-4598-b4e5-79e80c5440d5-1200x1600.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Deze knappe man is een kruising Akita met Amerikaanse Stafford. Hij is geboren in januari 2020. Zijn vorige eigenaar wilde hem na 6 dagen niet meer bij zich houden.
+Boelie is een actieve hond die graag dingen onderneemt. Toen hij hier binnenkwam, wist Boelie absoluut niet wat hij moest doen, hoe zich te gedragen en wat te verwachten. Er is in het asiel hard gewerkt aan zijn etiquette en tijdens het project Belgian Cell Dogs heeft Boelie laten zien een voorbeeldstudent te zijn. Zodra hij een band heeft met mensen (lees: wanneer er lekker eten te verdienen valt) heeft Boelie zin om te werken! Boelie heeft ook al geleerd om na te denken op momenten dat hij gefrustreerd wordt, daar waar hij voorheen kon happen. Hij heeft hier enorme vooruitgang in geboekt. We zijn dan ook heel enthousiast over zijn leervermogen!
+Favoriete bezigheden van deze vent zijn spelen en voerspelletjes. Momenten van aaien vindt hij ook fijn, maar Boelie is liever bezig met snuffelen, apporteren of snoepen. Oh, en als hobby is er ook nog zwemmen, of pootje baden. Zijn lijstje van favoriete bezigheden wordt afgesloten met een rustige wandeling.
+Boelie is een hele leergierige en voedselgerichte hond. Hij kent inmiddels de commando’s ‘zit’, ‘poot’ en ‘kom hier’.
+We zoeken voor Boelie een huis met een tuin. Zijn toekomstige baasje is het best in het begin meer thuis om hem te begeleiden. Oudere kinderen kunnen een optie voor hem zijn. Hij wordt helaas niet bij andere dieren geplaatst.
+Heeft u interesse in Boelie? Neem dan contact met ons op.
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Snuffelen, wandelen, apporteren, snoepen, zwemmen, trainen ... Ik ben een actieve hond die graag onderneemt! </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/boelie/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
+Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
+Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
+Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/junior/</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Biegel</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-10-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Deze heerlijke senior werd naar het asiel gebracht omwille van twee bijtincidenten met de andere hond des huizes. Zijn naam geeft zijn ras meteen weg, en anders doet zijn gedrag dit bevestigen: Biegel is een enorme speurneus. Hij vindt het heerlijk om te speuren naar nieuwe geurtjes of lekkere snoepjes. Deze snoepkont wordt graag mentaal uitgedaagd, bijvoorbeeld door zoek- en speurspellen of het leren van nieuwe commando’s. Zit en liggen zijn reeds bekend, maar Biegel wil heel graag lekkere snoepjes verdienen dus het aanleren van nieuwe commando’s is zeker mogelijk.
+Naast speuren en eten is ook geknuffeld worden een hobby. Samen op de zetel liggen na een uitgebreide wandeling vindt hij zalig.
+Biegel groeide bij zijn eigenaar op in huis en was zindelijk. Hij zoekt nu een warme thuis, zonder andere dieren. Biegel kan eten beschermen, waardoor een adoptie bij kleinere kinderen geen mogelijkheid is.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Ik ben een échte speurneus!</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/biegel/</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ryna</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/08/ASIELGENK_EVIOCLICK-37-1200x800.jpg</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deze dame zat vastgebonden onder een afdak, zonder eten en drinken. Ze was enkele dagen geleden doorgegeven. Ze werd in beslag genomen en is nu op zoek naar een thuis waar ze wél gewenst is.
+Ryna heeft duidelijk alleen buiten geleefd. Waar ze bij de eerste keer met knikkende knietjes een binnenruimte betrad, leert ze heel snel. Ze durft te gaan onderzoeken, houdt ervan om geaaid te worden en vindt het heerlijk om te spelen. Haar nieuwsgierigheid is enorm, waardoor alle spullen in huis grondig gaan worden geïnspecteerd. Ryna inspecteert graag met haar bek, dus haar eigenaren zullen vanaf moment één moeten leren wat wél en niet van haar is. Ryna kent het binnenleven niet en dit moet in stapjes worden opgebouwd. Aangezien ze graag inspecteert en hierbij haar bek gebruikt, zullen de eigenaren, zeker in het begin, veel tijd moeten vrijmaken om haar te begeleiden in wat van Ryna is en wat van mensen is.
+Doordat Ryna niet weet hoe ze zich moet gedragen, springt ze veel op. Haar vorige eigenaren hebben dit gestimuleerd, waardoor dit een werkpunt is voor de nieuwe eigenaren.
+Tolerante, zachtaardige mensen die Ryna stapje voor stapje willen laten groeien zijn ideaal voor haar.
+Deze mooie Mechelse herder is van 1-11-2021. Ze heeft nooit met andere dieren samengeleefd, maar de interactie met een stabiele reu zouden we zeker kunnen bekijken. Grote kinderen zijn een mogelijkheid. Ze vereist een huis met een tuin, zodat ze op haar gemakje kan verkennen.
+</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Ik moet nog wennen aan het leven binnen, maar ik ben erg nieuwsgierig en ik vind het heerlijk om te spelen en geaaid te worden!</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/ryna/</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>21:40:58</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>21:42:29</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>140216838365056</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boelie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/12/c66d6b76-c9b8-4598-b4e5-79e80c5440d5-1200x1600.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Deze knappe man is een kruising Akita met Amerikaanse Stafford. Hij is geboren in januari 2020. Zijn vorige eigenaar wilde hem na 6 dagen niet meer bij zich houden.
+Boelie is een actieve hond die graag dingen onderneemt. Toen hij hier binnenkwam, wist Boelie absoluut niet wat hij moest doen, hoe zich te gedragen en wat te verwachten. Er is in het asiel hard gewerkt aan zijn etiquette en tijdens het project Belgian Cell Dogs heeft Boelie laten zien een voorbeeldstudent te zijn. Zodra hij een band heeft met mensen (lees: wanneer er lekker eten te verdienen valt) heeft Boelie zin om te werken! Boelie heeft ook al geleerd om na te denken op momenten dat hij gefrustreerd wordt, daar waar hij voorheen kon happen. Hij heeft hier enorme vooruitgang in geboekt. We zijn dan ook heel enthousiast over zijn leervermogen!
+Favoriete bezigheden van deze vent zijn spelen en voerspelletjes. Momenten van aaien vindt hij ook fijn, maar Boelie is liever bezig met snuffelen, apporteren of snoepen. Oh, en als hobby is er ook nog zwemmen, of pootje baden. Zijn lijstje van favoriete bezigheden wordt afgesloten met een rustige wandeling.
+Boelie is een hele leergierige en voedselgerichte hond. Hij kent inmiddels de commando’s ‘zit’, ‘poot’ en ‘kom hier’.
+We zoeken voor Boelie een huis met een tuin. Zijn toekomstige baasje is het best in het begin meer thuis om hem te begeleiden. Oudere kinderen kunnen een optie voor hem zijn. Hij wordt helaas niet bij andere dieren geplaatst.
+Heeft u interesse in Boelie? Neem dan contact met ons op.
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Snuffelen, wandelen, apporteren, snoepen, zwemmen, trainen ... Ik ben een actieve hond die graag onderneemt! </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/boelie/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
+Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
+Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
+Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/junior/</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Biegel</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-10-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Deze heerlijke senior werd naar het asiel gebracht omwille van twee bijtincidenten met de andere hond des huizes. Zijn naam geeft zijn ras meteen weg, en anders doet zijn gedrag dit bevestigen: Biegel is een enorme speurneus. Hij vindt het heerlijk om te speuren naar nieuwe geurtjes of lekkere snoepjes. Deze snoepkont wordt graag mentaal uitgedaagd, bijvoorbeeld door zoek- en speurspellen of het leren van nieuwe commando’s. Zit en liggen zijn reeds bekend, maar Biegel wil heel graag lekkere snoepjes verdienen dus het aanleren van nieuwe commando’s is zeker mogelijk.
+Naast speuren en eten is ook geknuffeld worden een hobby. Samen op de zetel liggen na een uitgebreide wandeling vindt hij zalig.
+Biegel groeide bij zijn eigenaar op in huis en was zindelijk. Hij zoekt nu een warme thuis, zonder andere dieren. Biegel kan eten beschermen, waardoor een adoptie bij kleinere kinderen geen mogelijkheid is.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Ik ben een échte speurneus!</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/biegel/</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Ryna</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/08/ASIELGENK_EVIOCLICK-37-1200x800.jpg</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deze dame zat vastgebonden onder een afdak, zonder eten en drinken. Ze was enkele dagen geleden doorgegeven. Ze werd in beslag genomen en is nu op zoek naar een thuis waar ze wél gewenst is.
+Ryna heeft duidelijk alleen buiten geleefd. Waar ze bij de eerste keer met knikkende knietjes een binnenruimte betrad, leert ze heel snel. Ze durft te gaan onderzoeken, houdt ervan om geaaid te worden en vindt het heerlijk om te spelen. Haar nieuwsgierigheid is enorm, waardoor alle spullen in huis grondig gaan worden geïnspecteerd. Ryna inspecteert graag met haar bek, dus haar eigenaren zullen vanaf moment één moeten leren wat wél en niet van haar is. Ryna kent het binnenleven niet en dit moet in stapjes worden opgebouwd. Aangezien ze graag inspecteert en hierbij haar bek gebruikt, zullen de eigenaren, zeker in het begin, veel tijd moeten vrijmaken om haar te begeleiden in wat van Ryna is en wat van mensen is.
+Doordat Ryna niet weet hoe ze zich moet gedragen, springt ze veel op. Haar vorige eigenaren hebben dit gestimuleerd, waardoor dit een werkpunt is voor de nieuwe eigenaren.
+Tolerante, zachtaardige mensen die Ryna stapje voor stapje willen laten groeien zijn ideaal voor haar.
+Deze mooie Mechelse herder is van 1-11-2021. Ze heeft nooit met andere dieren samengeleefd, maar de interactie met een stabiele reu zouden we zeker kunnen bekijken. Grote kinderen zijn een mogelijkheid. Ze vereist een huis met een tuin, zodat ze op haar gemakje kan verkennen.
+</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Ik moet nog wennen aan het leven binnen, maar ik ben erg nieuwsgierig en ik vind het heerlijk om te spelen en geaaid te worden!</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/ryna/</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>21:40:58</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>21:42:59</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>140414642289216</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boelie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/12/c66d6b76-c9b8-4598-b4e5-79e80c5440d5-1200x1600.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Deze knappe man is een kruising Akita met Amerikaanse Stafford. Hij is geboren in januari 2020. Zijn vorige eigenaar wilde hem na 6 dagen niet meer bij zich houden.
+Boelie is een actieve hond die graag dingen onderneemt. Toen hij hier binnenkwam, wist Boelie absoluut niet wat hij moest doen, hoe zich te gedragen en wat te verwachten. Er is in het asiel hard gewerkt aan zijn etiquette en tijdens het project Belgian Cell Dogs heeft Boelie laten zien een voorbeeldstudent te zijn. Zodra hij een band heeft met mensen (lees: wanneer er lekker eten te verdienen valt) heeft Boelie zin om te werken! Boelie heeft ook al geleerd om na te denken op momenten dat hij gefrustreerd wordt, daar waar hij voorheen kon happen. Hij heeft hier enorme vooruitgang in geboekt. We zijn dan ook heel enthousiast over zijn leervermogen!
+Favoriete bezigheden van deze vent zijn spelen en voerspelletjes. Momenten van aaien vindt hij ook fijn, maar Boelie is liever bezig met snuffelen, apporteren of snoepen. Oh, en als hobby is er ook nog zwemmen, of pootje baden. Zijn lijstje van favoriete bezigheden wordt afgesloten met een rustige wandeling.
+Boelie is een hele leergierige en voedselgerichte hond. Hij kent inmiddels de commando’s ‘zit’, ‘poot’ en ‘kom hier’.
+We zoeken voor Boelie een huis met een tuin. Zijn toekomstige baasje is het best in het begin meer thuis om hem te begeleiden. Oudere kinderen kunnen een optie voor hem zijn. Hij wordt helaas niet bij andere dieren geplaatst.
+Heeft u interesse in Boelie? Neem dan contact met ons op.
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Snuffelen, wandelen, apporteren, snoepen, zwemmen, trainen ... Ik ben een actieve hond die graag onderneemt! </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/boelie/</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
+Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
+Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
+Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/junior/</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Biegel</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-10-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Deze heerlijke senior werd naar het asiel gebracht omwille van twee bijtincidenten met de andere hond des huizes. Zijn naam geeft zijn ras meteen weg, en anders doet zijn gedrag dit bevestigen: Biegel is een enorme speurneus. Hij vindt het heerlijk om te speuren naar nieuwe geurtjes of lekkere snoepjes. Deze snoepkont wordt graag mentaal uitgedaagd, bijvoorbeeld door zoek- en speurspellen of het leren van nieuwe commando’s. Zit en liggen zijn reeds bekend, maar Biegel wil heel graag lekkere snoepjes verdienen dus het aanleren van nieuwe commando’s is zeker mogelijk.
+Naast speuren en eten is ook geknuffeld worden een hobby. Samen op de zetel liggen na een uitgebreide wandeling vindt hij zalig.
+Biegel groeide bij zijn eigenaar op in huis en was zindelijk. Hij zoekt nu een warme thuis, zonder andere dieren. Biegel kan eten beschermen, waardoor een adoptie bij kleinere kinderen geen mogelijkheid is.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Ik ben een échte speurneus!</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/biegel/</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2021/08/zumaa.jpg</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Zuma heeft nogal een weg afgelegd vóór hij in ons asiel terecht is gekomen. Van de fokker is hij naar de eerste eigenaar gegaan, waar hij moeite had met het kind van de eigenaar. Hierop is hij doorgegeven aan mensen die zich niet bewust zijn van wat houden van honden inhoudt, zowel letterlijk als figuurlijk. Zuma is vervolgens op straat gezet en gelukkig veilig gevangen door onze hondenvanger.
+U kunt dus wel stellen dat Zuma een slechte start heeft gehad.
+In nieuwe situaties is hij erg onderzoekend en wil daarbij alles besnuffelen. Rondom nieuwe personen is hij onzeker en hij vertrouwt ook niet iedereen gelijk. Er is een vermoeden dat Zuma fysiek niet altijd even goed behandeld is geweest. We vinden het daarom belangrijk om aan zijn nieuwe eigenaren uitleg te geven over signalen die hij geeft wanneer hij zich minder comfortabel voelt. Het is nog geen hond die geniet van lange knuffelsessies.
+Waar je Zuma wel blij mee kunt maken is speuren. Hij is voergevoelig en hij kent ook al verschillende commando’s, zoals zit, af, poot en blijf. Speeltjes zijn fantastisch en er is veel met Zuma gewerkt met trekspellen. We zien dat Zuma hierin etiquette nodig gaat hebben, zodat spel gecontroleerd blijft.
+Wandelen is wel gekend door Zuma, maar het is nog geen hele ontspannen bezigheid. Hier kan de nieuwe eigenaar zeker aan werken!
+Wij weten zeker dat Zuma een mooie band kan gaan opbouwen met zijn nieuwe eigenaar wanneer hij deze gaat vertrouwen en er samen leuke en fijne dingen worden gedaan met hem.  
+Voor Zuma zoeken we een huis met een tuin, zonder kinderen. Hij kan eventueel bij een leuk teefje worden geplaatst.
+Bij interesse stuurt u het best een mailtje naar info@dierenasielgenk.be
+Deze hond zit in het programma van Belgian Cell Dogs, waarbij gedetineerden trainen met asielhonden om zodoende de adoptiekansen van de honden te verhogen. De honden leren commando’s en gewenst gedrag te vertonen.
+Gedurende 8 weken wordt de hond getraind en in die tijd kunnen adoptanten zich heel graag aanmelden voor de hond, kunnen er adoptie gesprekken plaatsvinden én kunnen adoptanten kijken hoe er vanuit Belgian Cell Dogs wordt getraind. De adoptie vindt dan plaats na het programma van 8 weken.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Ik ben op zoek naar een baasje om mee te spelen en te speuren en om samen een mooie band op te bouwen!</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/zuma/</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>21:43:55</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>21:44:38</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>140460831217792</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-34-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Junior werd samen met Tipsie en de pups in beslag genomen. De honden zaten in een vuil huis.
+Junior is een hele actieve hond, die een enorme focus heeft op tennisballen. Vermoedelijk is dit bij de vorige eigenaren gestimuleerd. We merken dat Junior graag met mensen activiteiten onderneemt, maar raden de tennisballen af. Speurspellen, nieuwe commando’s leren, wandelingen of zelfs joggen zijn activiteiten waar Junior heel blij van wordt.
+Junior is een vriendelijke hond, ook naar onbekende mensen. Hij kent de commando’s zit, af en poot en is duidelijk met hem gewerkt. Naast spelen is hij gek op eten en daar is een belangrijke regel bij Junior: wanneer hij iets lekkers heeft om te eten, wordt dit best geruild.
+Voor Junior is het belangrijk dat zijn nieuwe eigenaren het balspel niet stimuleren, maar hem wel voorzien in de behoefte om actief bezig te zijn. Een huis met een tuin is noodzakelijk. Hij wordt als enige hond geplaatst, eventueel bij volwassen kinderen.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ik ben een vriendelijke hond die heel erg blij wordt van speurspellen, nieuwe commando's leren en wandelingen!</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/junior/</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Biegel</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/ASIELGENK_EVIOCLICK-10-1200x1800.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Deze heerlijke senior werd naar het asiel gebracht omwille van twee bijtincidenten met de andere hond des huizes. Zijn naam geeft zijn ras meteen weg, en anders doet zijn gedrag dit bevestigen: Biegel is een enorme speurneus. Hij vindt het heerlijk om te speuren naar nieuwe geurtjes of lekkere snoepjes. Deze snoepkont wordt graag mentaal uitgedaagd, bijvoorbeeld door zoek- en speurspellen of het leren van nieuwe commando’s. Zit en liggen zijn reeds bekend, maar Biegel wil heel graag lekkere snoepjes verdienen dus het aanleren van nieuwe commando’s is zeker mogelijk.
+Naast speuren en eten is ook geknuffeld worden een hobby. Samen op de zetel liggen na een uitgebreide wandeling vindt hij zalig.
+Biegel groeide bij zijn eigenaar op in huis en was zindelijk. Hij zoekt nu een warme thuis, zonder andere dieren. Biegel kan eten beschermen, waardoor een adoptie bij kleinere kinderen geen mogelijkheid is.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Ik ben een échte speurneus!</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/biegel/</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Lucky</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/11/IMG20221104163040-1200x900.jpg</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Overgekomen vanuit Roemenië is Lucky nu als inbeslagname in ons asiel beland.
+We hopen dat snel het tij van onge-Lucky gaat keren en dat hij in een nieuw thuis veel geluk mag gaan ervaren.
+We hebben Lucky leren kennen als een onzekere hond die wel erg nieuwsgierig is en op onderzoek uit gaat. In eerste instantie zijn nieuwe dingen eng, maar met de juiste begeleiding is hij wel te sturen en durft hij dingen te onderzoeken.
+Hij is graag bij mensen die hij vertrouwt en is dan een knuffelaar. Daarnaast speelt hij graag met mensen en met speeltjes en eet hij graag vleesjes. Aan wat commando’s zal nog gewerkt moeten worden.
+De deuren in zijn nieuwe thuis kunnen het best Lucky-proof zijn doordat hij deze graag open maakt om van de buitenlucht te genieten. Hij is graag buiten en snuffelt er dan op los.
+We zoeken voor Lucky een huis met een tuin waar gewerkt kan worden aan het vertrouwen tussen hem en zijn nieuwe baasje(s) en welke begrijpen dat Lucky niet in alle situaties de meest open en sociale hond is. Oudere kinderen en eventueel een stabiel teefje behoren tot de mogelijkheden.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Ik ben onzeker maar wel erg nieuwsgierig en als ik je vertrouw ben ik een echte knuffelaar en speelvogel!</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/lucky-2/</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Dario</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/wp-content/uploads/2022/02/darioooo-1200x800.jpg</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Dario werd gevonden in een losloopweide. Hij zou gewoond hebben op een plaats waar al meerdere honden in beslag werden genomen door een gebrek aan dierenwelzijn. Dat is niet verwonderlijk als we afgaan op zijn magere lijfje en onrustige karakter.
+Dario is een hond die met de nodige voorzichtigheid en wat geduld moet benaderd worden. Hij is vooral in het begin erg onzeker bij vreemde mensen, maar toch wint zijn nieuwsgierigheid het van zijn angst. Wanneer je zijn vertrouwen wint, laat hij je ook echt toe. Dan komt hij aandacht vragen en laat hij zich graag aaien.
+Er zit ook een echte speelvogel verscholen in Dario. Je doet hem een groot plezier met een balletje of pluchen beertje. Neem zijn speeltjes wel niet zomaar af, deze jongeman wil ruilen. Ook een partijtje touwtrekken ziet hij zeker zitten, al wordt hij dan soms iets te fanatiek. Opletten voor je vingers!
+Wanneer er snoepjes in beeld komen, is Dario helemaal in zijn nopjes. Hij haalt hiervoor al zijn charmes uit de kast en gaat flink zitten voor zijn beloning.
+Waar de culinaire wereld helemaal Dario zijn dada is, is de medische dat allesbehalve. Bij de dierenarts sloeg hij in een blinde paniek, wat zeker een aandachtspunt is voor zijn nieuwe eigenaren.
+Dario zijn nieuwe thuis is best een huis mét tuin, zodat deze pittige jongen zich buiten heerlijk kan uitleven. Hij kan niet geplaatst worden bij (kleine) kinderen. Grotere kinderen zijn zeker een optie. Ook een stabiele teef is eventueel een mogelijkheid.</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Ik ben wat onzeker, maar als je wat geduld hebt leer je me kennen als speelvogel en knuffelaar!</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>https://dierenasielgenk.be/honden/dario-2/</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>22:56:09</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>22:56:28</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/app/records.xlsx
+++ b/backend/app/records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nam/Documents/MA1/SEM 1/MMI/Recommender System/HCIPaper/backend/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBEBC30-8A36-AF42-BB9B-33248A2948A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D6F20-3C96-3B44-B5A5-42AC2444D71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="AC30" sqref="A20:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
